--- a/participantWorkbook.xlsx
+++ b/participantWorkbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Day</t>
   </si>
@@ -20,34 +20,52 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Pazartesi</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
   <si>
     <t>Sinan</t>
   </si>
   <si>
-    <t>Sali</t>
+    <t>29/09/2023</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Emrullah</t>
+  </si>
+  <si>
+    <t>30/09/2023</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Ümmü</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Eda</t>
+  </si>
+  <si>
+    <t>03/10/2023</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
   </si>
   <si>
     <t>Cahit</t>
   </si>
   <si>
-    <t>Carsamba</t>
-  </si>
-  <si>
-    <t>Emrullah</t>
-  </si>
-  <si>
-    <t>Persembe</t>
-  </si>
-  <si>
-    <t>Eda</t>
-  </si>
-  <si>
-    <t>Cuma</t>
-  </si>
-  <si>
-    <t>Ümmü</t>
+    <t>04/10/2023</t>
   </si>
 </sst>
 </file>
@@ -92,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,45 +123,63 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/participantWorkbook.xlsx
+++ b/participantWorkbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -23,49 +23,64 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Eda</t>
+  </si>
+  <si>
+    <t>02/10/2023</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Zeynep</t>
+  </si>
+  <si>
+    <t>03/10/2023</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Sinan</t>
+  </si>
+  <si>
+    <t>04/10/2023</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Emrullah</t>
+  </si>
+  <si>
+    <t>05/10/2023</t>
+  </si>
+  <si>
     <t>Friday</t>
   </si>
   <si>
-    <t>Sinan</t>
-  </si>
-  <si>
-    <t>29/09/2023</t>
+    <t>Cahit</t>
+  </si>
+  <si>
+    <t>06/10/2023</t>
   </si>
   <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>Emrullah</t>
-  </si>
-  <si>
-    <t>30/09/2023</t>
-  </si>
-  <si>
-    <t>Monday</t>
+    <t>Ertugrul</t>
+  </si>
+  <si>
+    <t>07/10/2023</t>
   </si>
   <si>
     <t>Ümmü</t>
   </si>
   <si>
-    <t>02/10/2023</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Eda</t>
-  </si>
-  <si>
-    <t>03/10/2023</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Cahit</t>
-  </si>
-  <si>
-    <t>04/10/2023</t>
+    <t>09/10/2023</t>
   </si>
 </sst>
 </file>
@@ -110,7 +125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -182,6 +197,28 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/participantWorkbook.xlsx
+++ b/participantWorkbook.xlsx
@@ -26,70 +26,70 @@
     <t>Salı</t>
   </si>
   <si>
+    <t>4 Emrullah</t>
+  </si>
+  <si>
+    <t>24/10/2023</t>
+  </si>
+  <si>
+    <t>Çarşamba</t>
+  </si>
+  <si>
+    <t>18 Kübra</t>
+  </si>
+  <si>
+    <t>25/10/2023</t>
+  </si>
+  <si>
+    <t>Perşembe</t>
+  </si>
+  <si>
+    <t>3 Eda</t>
+  </si>
+  <si>
+    <t>26/10/2023</t>
+  </si>
+  <si>
+    <t>Cuma</t>
+  </si>
+  <si>
+    <t>6 Cahit</t>
+  </si>
+  <si>
+    <t>27/10/2023</t>
+  </si>
+  <si>
+    <t>Cumartesi</t>
+  </si>
+  <si>
     <t>8 Ertugrul</t>
   </si>
   <si>
-    <t>24/10/2023</t>
-  </si>
-  <si>
-    <t>Çarşamba</t>
-  </si>
-  <si>
-    <t>4 Emrullah</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
-  </si>
-  <si>
-    <t>Perşembe</t>
-  </si>
-  <si>
-    <t>6 Cahit</t>
-  </si>
-  <si>
-    <t>26/10/2023</t>
-  </si>
-  <si>
-    <t>Cuma</t>
+    <t>28/10/2023</t>
+  </si>
+  <si>
+    <t>Pazartesi</t>
+  </si>
+  <si>
+    <t>10 Ümmü</t>
+  </si>
+  <si>
+    <t>30/10/2023</t>
   </si>
   <si>
     <t>7 Nurullah</t>
   </si>
   <si>
-    <t>27/10/2023</t>
-  </si>
-  <si>
-    <t>Cumartesi</t>
+    <t>31/10/2023</t>
+  </si>
+  <si>
+    <t>29 Ahmet</t>
+  </si>
+  <si>
+    <t>01/11/2023</t>
   </si>
   <si>
     <t>17 Sinan</t>
-  </si>
-  <si>
-    <t>28/10/2023</t>
-  </si>
-  <si>
-    <t>Pazartesi</t>
-  </si>
-  <si>
-    <t>3 Eda</t>
-  </si>
-  <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
-    <t>18 Kübra</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>29 Ahmet</t>
-  </si>
-  <si>
-    <t>01/11/2023</t>
-  </si>
-  <si>
-    <t>10 Ümmü</t>
   </si>
   <si>
     <t>02/11/2023</t>

--- a/participantWorkbook.xlsx
+++ b/participantWorkbook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -23,76 +23,70 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Cumartesi</t>
+  </si>
+  <si>
+    <t>31 Tugba</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>Pazartesi</t>
+  </si>
+  <si>
+    <t>6 Cahit</t>
+  </si>
+  <si>
+    <t>06/11/2023</t>
+  </si>
+  <si>
     <t>Salı</t>
   </si>
   <si>
+    <t>32 Sule</t>
+  </si>
+  <si>
+    <t>07/11/2023</t>
+  </si>
+  <si>
+    <t>Çarşamba</t>
+  </si>
+  <si>
     <t>4 Emrullah</t>
   </si>
   <si>
-    <t>24/10/2023</t>
-  </si>
-  <si>
-    <t>Çarşamba</t>
-  </si>
-  <si>
-    <t>18 Kübra</t>
-  </si>
-  <si>
-    <t>25/10/2023</t>
+    <t>08/11/2023</t>
   </si>
   <si>
     <t>Perşembe</t>
   </si>
   <si>
+    <t>17 Sinan</t>
+  </si>
+  <si>
+    <t>09/11/2023</t>
+  </si>
+  <si>
+    <t>Cuma</t>
+  </si>
+  <si>
+    <t>30 Mehmet</t>
+  </si>
+  <si>
+    <t>10/11/2023</t>
+  </si>
+  <si>
+    <t>7 Nurullah</t>
+  </si>
+  <si>
+    <t>11/11/2023</t>
+  </si>
+  <si>
     <t>3 Eda</t>
   </si>
   <si>
-    <t>26/10/2023</t>
-  </si>
-  <si>
-    <t>Cuma</t>
-  </si>
-  <si>
-    <t>6 Cahit</t>
-  </si>
-  <si>
-    <t>27/10/2023</t>
-  </si>
-  <si>
-    <t>Cumartesi</t>
-  </si>
-  <si>
-    <t>8 Ertugrul</t>
-  </si>
-  <si>
-    <t>28/10/2023</t>
-  </si>
-  <si>
-    <t>Pazartesi</t>
-  </si>
-  <si>
-    <t>10 Ümmü</t>
-  </si>
-  <si>
-    <t>30/10/2023</t>
-  </si>
-  <si>
-    <t>7 Nurullah</t>
-  </si>
-  <si>
-    <t>31/10/2023</t>
-  </si>
-  <si>
-    <t>29 Ahmet</t>
-  </si>
-  <si>
-    <t>01/11/2023</t>
-  </si>
-  <si>
-    <t>17 Sinan</t>
-  </si>
-  <si>
-    <t>02/11/2023</t>
+    <t>13/11/2023</t>
   </si>
 </sst>
 </file>
@@ -137,7 +131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -242,17 +236,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
